--- a/Inputs/descarga_original.xlsx
+++ b/Inputs/descarga_original.xlsx
@@ -2319,10 +2319,12 @@
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2576,9 +2578,9 @@
       <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="135" width="21.57"/>
+    <col customWidth="1" min="1" max="135" width="18.88"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/Inputs/descarga_original.xlsx
+++ b/Inputs/descarga_original.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$CU$70</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$CU$72</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5959" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6129" uniqueCount="832">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -2479,6 +2479,36 @@
   </si>
   <si>
     <t xml:space="preserve">Difícil </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cocinar </t>
+  </si>
+  <si>
+    <t>Cocina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emplatar viandas </t>
+  </si>
+  <si>
+    <t>Primer Cuatrimestre</t>
+  </si>
+  <si>
+    <t>miayeve2017@gmail.com</t>
+  </si>
+  <si>
+    <t>Rodolfo walsh</t>
+  </si>
+  <si>
+    <t>Administrativa medica</t>
+  </si>
+  <si>
+    <t>Recepcion de pacientes, armado de hc, asignacion de turnos y preparar los co sultorios de los medicos</t>
+  </si>
+  <si>
+    <t>Comparacion</t>
+  </si>
+  <si>
+    <t>MICAELA, VERDES</t>
   </si>
 </sst>
 </file>
@@ -2520,7 +2550,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2542,6 +2572,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -25830,10 +25863,650 @@
       <c r="DV70" s="7"/>
     </row>
     <row r="71">
-      <c r="E71" s="2"/>
+      <c r="A71" s="4">
+        <v>44655.3699775</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E71" s="9">
+        <v>33769.0</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G71" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J71" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="M71" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="P71" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>1208.0</v>
+      </c>
+      <c r="R71" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="S71" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="T71" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="U71" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="V71" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="W71" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="X71" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y71" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z71" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AB71" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AC71" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD71" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE71" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF71" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AG71" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH71" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AI71" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AJ71" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="AK71" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="AL71" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AM71" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="AN71" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="AO71" s="3">
+        <v>7500.0</v>
+      </c>
+      <c r="AP71" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AQ71" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AR71" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="AS71" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AT71" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AU71" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AV71" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AW71" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AX71" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AY71" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="AZ71" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="BA71" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="BB71" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="BC71" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="BD71" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="BE71" s="3">
+        <v>2019.0</v>
+      </c>
+      <c r="BF71" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BG71" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="BH71" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="BI71" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="BJ71" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="BK71" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="BL71" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="BM71" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="BN71" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="BO71" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="BP71" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="BQ71" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="BR71" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BS71" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="BV71" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="BW71" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="BX71" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="BY71" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="BZ71" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="CA71" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="CB71" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CC71" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CD71" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CE71" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CF71" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CG71" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CH71" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="CI71" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="CJ71" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CK71" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CL71" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="CM71" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CN71" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CO71" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CP71" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CQ71" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="CR71" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CS71" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="CT71" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="CU71" s="3">
+        <v>3.6761296E7</v>
+      </c>
+      <c r="CW71" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="CX71" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="CY71" s="3">
+        <v>2022.0</v>
+      </c>
+      <c r="CZ71" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="DA71" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="DB71" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="DC71" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="DD71" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="DE71" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="DF71" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="DG71" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="DH71" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="DI71" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="DJ71" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="DK71" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="DL71" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="DM71" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="DN71" s="3" t="s">
+        <v>600</v>
+      </c>
     </row>
     <row r="72">
-      <c r="E72" s="2"/>
+      <c r="A72" s="4">
+        <v>44655.49384729167</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E72" s="9">
+        <v>33859.0</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G72" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J72" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="W72" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="X72" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y72" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z72" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA72" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AB72" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AC72" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD72" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE72" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF72" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AG72" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH72" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AI72" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AJ72" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="AK72" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="AL72" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AM72" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="AN72" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="AO72" s="3">
+        <v>7500.0</v>
+      </c>
+      <c r="AP72" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AQ72" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AR72" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AS72" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT72" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU72" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV72" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="AW72" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AX72" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="AY72" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="AZ72" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="BA72" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="BB72" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="BC72" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="BD72" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="BE72" s="3">
+        <v>2021.0</v>
+      </c>
+      <c r="BF72" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BG72" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="BH72" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="BI72" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="BJ72" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="BK72" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="BL72" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="BM72" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="BN72" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="BO72" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="BP72" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="BQ72" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="BS72" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="BT72" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="BU72" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="CI72" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="CJ72" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CK72" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CL72" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="CM72" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CN72" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CO72" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CP72" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CQ72" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="CR72" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="CS72" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="CT72" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="CU72" s="3">
+        <v>3.7085431E7</v>
+      </c>
+      <c r="CW72" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="CX72" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="CY72" s="3">
+        <v>2022.0</v>
+      </c>
+      <c r="CZ72" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="DA72" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="DB72" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="DC72" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="DD72" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="DE72" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="DF72" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="DG72" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="DH72" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="DI72" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="DJ72" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="DK72" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="DL72" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="DM72" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="DN72" s="3" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="73">
       <c r="E73" s="2"/>
@@ -26129,8 +26802,14 @@
     <row r="170">
       <c r="E170" s="2"/>
     </row>
+    <row r="171">
+      <c r="E171" s="2"/>
+    </row>
+    <row r="172">
+      <c r="E172" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$CU$70"/>
+  <autoFilter ref="$A$1:$CU$72"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Inputs/descarga_original.xlsx
+++ b/Inputs/descarga_original.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$CU$72</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$CU$78</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6129" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6650" uniqueCount="885">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -2509,6 +2509,165 @@
   </si>
   <si>
     <t>MICAELA, VERDES</t>
+  </si>
+  <si>
+    <t>milkobemar@gmail.com</t>
+  </si>
+  <si>
+    <t>topografo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> vaciamento de pavimento con medición de longitud y altura y hacedor de planos de casas</t>
+  </si>
+  <si>
+    <t>cuenta propista</t>
+  </si>
+  <si>
+    <t>venta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> medibles </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> evidencia</t>
+  </si>
+  <si>
+    <t>formas de medición</t>
+  </si>
+  <si>
+    <t>MILKO BEMAR, CASTRO LOPEZ</t>
+  </si>
+  <si>
+    <t>mariaesterromero46@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dentista </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prótesis dental </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albañil  </t>
+  </si>
+  <si>
+    <t>Levantar paredes</t>
+  </si>
+  <si>
+    <t>ALDANA, BENITEZ</t>
+  </si>
+  <si>
+    <t>ANTONELLA, CEBALLOS</t>
+  </si>
+  <si>
+    <t>BARBARA NOELIA, VILLAFAÑE</t>
+  </si>
+  <si>
+    <t>BARBARA ADRIANA, GONZALEZ AMARILLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Científico </t>
+  </si>
+  <si>
+    <t>MARIA ESTER, ROMERO BENITEZ</t>
+  </si>
+  <si>
+    <t>kari_uba@yahoo.com.ar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Rancho </t>
+  </si>
+  <si>
+    <t>limpieza, cuidado de niños</t>
+  </si>
+  <si>
+    <t>funcionaria publica</t>
+  </si>
+  <si>
+    <t>tareas varias.</t>
+  </si>
+  <si>
+    <t>calcular</t>
+  </si>
+  <si>
+    <t>KARINA SOLEDAD, PEÑALVA</t>
+  </si>
+  <si>
+    <t>mariastoianoff390@gmail.com</t>
+  </si>
+  <si>
+    <t>zapatero</t>
+  </si>
+  <si>
+    <t>fabricaba y arreglaba zapatos</t>
+  </si>
+  <si>
+    <t>MARIA DE LOS ANGELES, ZAPATA</t>
+  </si>
+  <si>
+    <t>información</t>
+  </si>
+  <si>
+    <t>conocimiemto</t>
+  </si>
+  <si>
+    <t>antonellaceballos@gmail.com</t>
+  </si>
+  <si>
+    <t>calle 59 entre 129 y 130</t>
+  </si>
+  <si>
+    <t>A hoyo/excavación en la tierra?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maestranza privada </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jefa de cocina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">peluqueria </t>
+  </si>
+  <si>
+    <t>teñido y corte de cabello</t>
+  </si>
+  <si>
+    <t>CLAUDIA NOEMI, AVELLANEDA</t>
+  </si>
+  <si>
+    <t>cantidad</t>
+  </si>
+  <si>
+    <t>averiguar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lopez de Gomara </t>
+  </si>
+  <si>
+    <t>asafaltos en ruta, implicaba viajar por varios meses.</t>
+  </si>
+  <si>
+    <t>Operador sociocomunitario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coordinación de talleres </t>
+  </si>
+  <si>
+    <t>No le hacen descuentos y aporta usted mismo al sistema jubilatorio</t>
+  </si>
+  <si>
+    <t>MILAGROS SOFIA, GALVAN</t>
+  </si>
+  <si>
+    <t>VALERIA, MONTANARIS</t>
+  </si>
+  <si>
+    <t>MARIO JESUS, MALDONADO</t>
+  </si>
+  <si>
+    <t>LUDMILA AYELEN, CANTEROS</t>
+  </si>
+  <si>
+    <t>procesos</t>
   </si>
 </sst>
 </file>
@@ -26509,22 +26668,1993 @@
       </c>
     </row>
     <row r="73">
-      <c r="E73" s="2"/>
+      <c r="A73" s="4">
+        <v>44657.47055978009</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="E73" s="9">
+        <v>25176.0</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G73" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J73" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="M73" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="P73" s="3">
+        <v>503.0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>3198.0</v>
+      </c>
+      <c r="R73" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="S73" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="T73" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="U73" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="V73" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="W73" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="X73" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y73" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z73" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="AB73" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AC73" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD73" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE73" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF73" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AG73" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH73" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="AI73" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="AJ73" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="AK73" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="AL73" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="AM73" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="AN73" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AO73" s="3">
+        <v>3000.0</v>
+      </c>
+      <c r="AP73" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AQ73" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AR73" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AS73" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AT73" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AU73" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AV73" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AW73" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AX73" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="AY73" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AZ73" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="BA73" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="BB73" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="BC73" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="BD73" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="BE73" s="3">
+        <v>2014.0</v>
+      </c>
+      <c r="BF73" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="BG73" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="BH73" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="BI73" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="BJ73" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="BK73" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="BL73" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="BM73" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="BN73" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="BO73" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="BP73" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="BQ73" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="BR73" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BS73" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="BV73" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="BW73" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="BX73" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="BY73" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="BZ73" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="CA73" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="CB73" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CC73" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CD73" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CE73" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CF73" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CG73" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CH73" s="3">
+        <v>36.0</v>
+      </c>
+      <c r="CI73" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="CJ73" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CK73" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CL73" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CM73" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CN73" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CO73" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CP73" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CQ73" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CR73" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CS73" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="CT73" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="CU73" s="3">
+        <v>1.9043678E7</v>
+      </c>
+      <c r="CW73" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="CX73" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="CY73" s="3">
+        <v>2022.0</v>
+      </c>
+      <c r="CZ73" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="DA73" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="DB73" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="DC73" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="DD73" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="DE73" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="DF73" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="DG73" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="DH73" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="DI73" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="DJ73" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="DK73" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="DL73" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="DM73" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="DN73" s="3" t="s">
+        <v>600</v>
+      </c>
     </row>
     <row r="74">
-      <c r="E74" s="2"/>
+      <c r="A74" s="4">
+        <v>44657.630866238425</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E74" s="9">
+        <v>44743.0</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G74" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J74" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="M74" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="N74" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="P74" s="3">
+        <v>1262.0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>889.0</v>
+      </c>
+      <c r="R74" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="S74" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="T74" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="U74" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="V74" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="W74" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="X74" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y74" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z74" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AB74" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AC74" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD74" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE74" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF74" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AG74" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH74" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AI74" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AJ74" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="AK74" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AL74" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AM74" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="AN74" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AO74" s="3">
+        <v>5000.0</v>
+      </c>
+      <c r="AP74" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AQ74" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AR74" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS74" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AT74" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AU74" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AV74" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AW74" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AX74" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AY74" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="AZ74" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="BA74" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="BB74" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="BC74" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="BD74" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="BE74" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="BF74" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="BG74" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="BH74" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="BI74" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="BJ74" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="BK74" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="BL74" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="BM74" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="BN74" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="BO74" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="BP74" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="BQ74" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="BR74" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="BS74" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="BV74" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="BW74" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="BX74" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="BY74" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="BZ74" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="CA74" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="CB74" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CC74" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CD74" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CE74" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="CF74" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CG74" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CH74" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="CI74" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CJ74" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="CK74" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CL74" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="CM74" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CN74" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CO74" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CP74" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CQ74" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CR74" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CS74" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="CT74" s="3">
+        <v>50000.0</v>
+      </c>
+      <c r="CU74" s="3">
+        <v>9.3079507E7</v>
+      </c>
+      <c r="CW74" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="CX74" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="CY74" s="3">
+        <v>2022.0</v>
+      </c>
+      <c r="CZ74" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="DA74" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="DB74" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="DC74" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="DD74" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="DE74" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="DF74" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="DG74" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="DH74" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="DI74" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="DJ74" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="DK74" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="DL74" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="DM74" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="DN74" s="3" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="75">
-      <c r="E75" s="2"/>
+      <c r="A75" s="4">
+        <v>44657.713913113424</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E75" s="9">
+        <v>30531.0</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G75" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="M75" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="N75" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="P75" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>1618.0</v>
+      </c>
+      <c r="R75" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="S75" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="T75" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="U75" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="V75" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="W75" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="X75" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y75" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z75" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AB75" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AC75" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD75" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE75" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF75" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG75" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH75" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="AI75" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="AJ75" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="AK75" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="AL75" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="AM75" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AN75" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AO75" s="3">
+        <v>2000.0</v>
+      </c>
+      <c r="AP75" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AQ75" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AR75" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AS75" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AT75" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AU75" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AV75" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AW75" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AX75" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AY75" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="AZ75" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="BA75" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="BB75" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="BC75" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="BD75" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="BE75" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="BF75" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="BG75" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="BH75" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="BI75" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="BJ75" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="BK75" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="BL75" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="BM75" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="BN75" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="BO75" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="BP75" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="BQ75" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="BR75" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="BS75" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="BV75" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="BW75" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="BX75" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="BY75" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="BZ75" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="CA75" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="CB75" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="CC75" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="CD75" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="CE75" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CF75" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="CG75" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="CH75" s="3">
+        <v>45.0</v>
+      </c>
+      <c r="CI75" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="CJ75" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CK75" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="CL75" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CM75" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CN75" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CO75" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CP75" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CQ75" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CR75" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CS75" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="CT75" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="CU75" s="3">
+        <v>3.0282949E7</v>
+      </c>
+      <c r="CW75" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="CX75" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="CY75" s="3">
+        <v>2022.0</v>
+      </c>
+      <c r="CZ75" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="DA75" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="DB75" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="DC75" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="DD75" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="DE75" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="DF75" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="DG75" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="DH75" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="DI75" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="DJ75" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="DK75" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="DL75" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="DM75" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="DN75" s="3" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="76">
-      <c r="E76" s="2"/>
+      <c r="A76" s="4">
+        <v>44657.846829745366</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E76" s="9">
+        <v>27597.0</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G76" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="P76" s="3">
+        <v>533.0</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>3478.0</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="W76" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="X76" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y76" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z76" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA76" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="AB76" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AC76" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD76" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE76" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF76" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG76" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH76" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="AI76" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="AJ76" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="AK76" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="AL76" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AM76" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="AN76" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="AO76" s="3">
+        <v>7500.0</v>
+      </c>
+      <c r="AP76" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AQ76" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AR76" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AS76" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AT76" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AU76" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV76" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AW76" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AX76" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AY76" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AZ76" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="BA76" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="BB76" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="BC76" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="BD76" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="BE76" s="3">
+        <v>2018.0</v>
+      </c>
+      <c r="BF76" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="BG76" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="BH76" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="BI76" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="BJ76" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="BK76" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="BL76" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="BM76" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="BN76" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="BO76" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="BP76" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="BQ76" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="BR76" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="BS76" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="BT76" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="BU76" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="CI76" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="CJ76" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CK76" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CL76" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CM76" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="CN76" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CO76" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CP76" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CQ76" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CR76" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CS76" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="CT76" s="3">
+        <v>100000.0</v>
+      </c>
+      <c r="CU76" s="3">
+        <v>2.4544424E7</v>
+      </c>
+      <c r="CW76" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="CX76" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="CY76" s="3">
+        <v>2022.0</v>
+      </c>
+      <c r="CZ76" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="DA76" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="DB76" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="DC76" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="DD76" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="DE76" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="DF76" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="DG76" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="DH76" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="DI76" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="DJ76" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="DK76" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="DL76" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="DM76" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="DN76" s="3" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="77">
-      <c r="E77" s="2"/>
+      <c r="A77" s="4">
+        <v>44657.87927417824</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E77" s="9">
+        <v>36689.0</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G77" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="M77" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="P77" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>2951.0</v>
+      </c>
+      <c r="R77" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="S77" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="T77" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="U77" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="V77" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="W77" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="X77" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y77" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z77" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="AB77" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AC77" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD77" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE77" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF77" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AG77" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH77" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AI77" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AJ77" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="AK77" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="AL77" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AM77" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="AN77" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="AO77" s="3">
+        <v>5000.0</v>
+      </c>
+      <c r="AP77" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AQ77" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AR77" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS77" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AT77" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU77" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV77" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AW77" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AX77" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AY77" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AZ77" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="BA77" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="BB77" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="BC77" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="BD77" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="BE77" s="3">
+        <v>2019.0</v>
+      </c>
+      <c r="BF77" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BG77" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="BH77" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="BI77" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="BJ77" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="BK77" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="BL77" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="BM77" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="BN77" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="BO77" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="BP77" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="BQ77" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="BR77" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="BS77" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="BV77" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="BW77" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="BX77" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="BY77" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="BZ77" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="CA77" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="CB77" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CC77" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CD77" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CE77" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CF77" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CG77" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="CH77" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="CI77" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="CJ77" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CK77" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CL77" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CM77" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CN77" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CO77" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CP77" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CQ77" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="CR77" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CS77" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="CT77" s="8">
+        <v>60000.0</v>
+      </c>
+      <c r="CU77" s="3">
+        <v>4.2732614E7</v>
+      </c>
+      <c r="CW77" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="CX77" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="CY77" s="3">
+        <v>2022.0</v>
+      </c>
+      <c r="CZ77" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="DA77" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="DB77" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="DC77" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="DD77" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="DE77" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="DF77" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="DG77" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="DH77" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="DI77" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="DJ77" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="DK77" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="DL77" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="DM77" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="DN77" s="3" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="78">
-      <c r="E78" s="2"/>
+      <c r="A78" s="4">
+        <v>44657.9866190162</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E78" s="9">
+        <v>31666.0</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G78" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J78" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="M78" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="P78" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="Q78" s="3">
+        <v>6275.0</v>
+      </c>
+      <c r="R78" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="S78" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="T78" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="U78" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="V78" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="W78" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="X78" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y78" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z78" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA78" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AB78" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AC78" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD78" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE78" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF78" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AG78" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH78" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AI78" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="AJ78" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="AK78" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="AL78" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AM78" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="AN78" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="AO78" s="3">
+        <v>10000.0</v>
+      </c>
+      <c r="AP78" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AQ78" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AR78" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS78" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT78" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU78" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV78" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AW78" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AX78" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AY78" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AZ78" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="BA78" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="BB78" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="BC78" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="BD78" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="BE78" s="3">
+        <v>2020.0</v>
+      </c>
+      <c r="BF78" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="BG78" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="BH78" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="BI78" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="BJ78" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="BK78" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="BL78" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="BM78" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="BN78" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="BO78" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="BP78" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="BQ78" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="BR78" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="BS78" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="BV78" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="BW78" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="BX78" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="BY78" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="BZ78" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="CA78" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="CB78" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CC78" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="CD78" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="CE78" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CF78" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="CG78" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="CH78" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="CI78" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="CJ78" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="CK78" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CL78" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="CM78" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CN78" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CO78" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CP78" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CQ78" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CR78" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CS78" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="CT78" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="CU78" s="3">
+        <v>3.2796277E7</v>
+      </c>
+      <c r="CW78" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="CX78" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="CY78" s="3">
+        <v>2022.0</v>
+      </c>
+      <c r="CZ78" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="DA78" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="DB78" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="DC78" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="DD78" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="DE78" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="DF78" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="DG78" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="DH78" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="DI78" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="DJ78" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="DK78" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="DL78" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="DM78" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="DN78" s="3" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="79">
       <c r="E79" s="2"/>
@@ -26808,8 +28938,26 @@
     <row r="172">
       <c r="E172" s="2"/>
     </row>
+    <row r="173">
+      <c r="E173" s="2"/>
+    </row>
+    <row r="174">
+      <c r="E174" s="2"/>
+    </row>
+    <row r="175">
+      <c r="E175" s="2"/>
+    </row>
+    <row r="176">
+      <c r="E176" s="2"/>
+    </row>
+    <row r="177">
+      <c r="E177" s="2"/>
+    </row>
+    <row r="178">
+      <c r="E178" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$CU$72"/>
+  <autoFilter ref="$A$1:$CU$78"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Inputs/descarga_original.xlsx
+++ b/Inputs/descarga_original.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$CU$78</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Respuestas de formulario 1'!$A$1:$CU$79</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6650" uniqueCount="885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6729" uniqueCount="890">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -2668,6 +2668,21 @@
   </si>
   <si>
     <t>procesos</t>
+  </si>
+  <si>
+    <t>walterhr-59@hotmail.com</t>
+  </si>
+  <si>
+    <t>Estrada</t>
+  </si>
+  <si>
+    <t>Colectivero</t>
+  </si>
+  <si>
+    <t>Manejaba un colectivo</t>
+  </si>
+  <si>
+    <t>HECTOR WALTER, RIVAROLA</t>
   </si>
 </sst>
 </file>
@@ -28657,7 +28672,309 @@
       </c>
     </row>
     <row r="79">
-      <c r="E79" s="2"/>
+      <c r="A79" s="4">
+        <v>44658.44237741898</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="E79" s="9">
+        <v>21857.0</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G79" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J79" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="M79" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="P79" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="Q79" s="3">
+        <v>69.0</v>
+      </c>
+      <c r="R79" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="S79" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="T79" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="U79" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="V79" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="W79" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="X79" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y79" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z79" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA79" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AB79" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AC79" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD79" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE79" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF79" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG79" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH79" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AI79" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AJ79" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AK79" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="AL79" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AM79" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="AN79" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AO79" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AP79" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AQ79" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AR79" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AS79" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AT79" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AU79" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AV79" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AW79" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AX79" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AY79" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AZ79" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="BA79" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="BB79" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="BC79" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="BD79" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="BE79" s="3">
+        <v>2015.0</v>
+      </c>
+      <c r="BF79" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="BG79" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="BH79" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="BI79" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="BJ79" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="BK79" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="BL79" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="BM79" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="BN79" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="BO79" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="BP79" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="BQ79" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="BR79" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BS79" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="BT79" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="BU79" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="CI79" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="CJ79" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CK79" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="CL79" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="CM79" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CN79" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CO79" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CP79" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CQ79" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CR79" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CS79" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="CT79" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="CU79" s="3">
+        <v>1.3634211E7</v>
+      </c>
+      <c r="CW79" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="CX79" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="CY79" s="3">
+        <v>2022.0</v>
+      </c>
+      <c r="CZ79" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="DA79" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="DB79" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="DC79" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="DD79" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="DE79" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="DF79" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="DG79" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="DH79" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="DI79" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="DJ79" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="DK79" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="DL79" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="DM79" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="DN79" s="3" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="80">
       <c r="E80" s="2"/>
@@ -28956,8 +29273,11 @@
     <row r="178">
       <c r="E178" s="2"/>
     </row>
+    <row r="179">
+      <c r="E179" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$CU$78"/>
+  <autoFilter ref="$A$1:$CU$79"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>